--- a/plots_to_show/SARI/final_metrics_D10.xlsx
+++ b/plots_to_show/SARI/final_metrics_D10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="21105" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -617,148 +610,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,13 +1114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="5" width="12.625"/>
@@ -1154,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1175,6 +1168,10 @@
       </c>
       <c r="G2">
         <f>IF(B4&lt;B3,IF(B4&lt;B2,2,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>IF(C4&lt;C3,IF(C4&lt;C2,2,1),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1218,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1241,6 +1238,10 @@
         <f>IF(B7&lt;B6,IF(B7&lt;B5,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H5">
+        <f>IF(C7&lt;C6,IF(C7&lt;C5,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
@@ -1282,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1305,6 +1306,10 @@
         <f>IF(B10&lt;B9,IF(B10&lt;B8,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H8">
+        <f>IF(C10&lt;C9,IF(C10&lt;C8,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
@@ -1346,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1369,6 +1374,10 @@
         <f>IF(B13&lt;B12,IF(B13&lt;B11,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H11">
+        <f>IF(C13&lt;C12,IF(C13&lt;C11,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
@@ -1410,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1433,6 +1442,10 @@
         <f>IF(B16&lt;B15,IF(B16&lt;B14,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H14">
+        <f>IF(C16&lt;C15,IF(C16&lt;C14,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
@@ -1474,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1497,6 +1510,10 @@
         <f>IF(B19&lt;B18,IF(B19&lt;B17,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H17">
+        <f>IF(C19&lt;C18,IF(C19&lt;C17,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
@@ -1538,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1561,6 +1578,10 @@
         <f>IF(B22&lt;B21,IF(B22&lt;B20,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H20">
+        <f>IF(C22&lt;C21,IF(C22&lt;C20,2,1),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
@@ -1602,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1625,6 +1646,10 @@
         <f>IF(B25&lt;B24,IF(B25&lt;B23,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H23">
+        <f>IF(C25&lt;C24,IF(C25&lt;C23,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
@@ -1666,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1689,6 +1714,10 @@
         <f>IF(B28&lt;B27,IF(B28&lt;B26,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H26">
+        <f>IF(C28&lt;C27,IF(C28&lt;C26,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
@@ -1730,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1751,6 +1780,10 @@
       </c>
       <c r="G29">
         <f>IF(B31&lt;B30,IF(B31&lt;B29,2,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>IF(C31&lt;C30,IF(C31&lt;C29,2,1),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1794,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1817,6 +1850,10 @@
         <f>IF(B34&lt;B33,IF(B34&lt;B32,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H32">
+        <f>IF(C34&lt;C33,IF(C34&lt;C32,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
@@ -1858,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1881,6 +1918,10 @@
         <f>IF(B37&lt;B36,IF(B37&lt;B35,2,1),0)</f>
         <v>2</v>
       </c>
+      <c r="H35">
+        <f>IF(C37&lt;C36,IF(C37&lt;C35,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
@@ -1922,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1944,6 +1985,10 @@
       <c r="G38">
         <f>IF(B40&lt;B39,IF(B40&lt;B38,2,1),0)</f>
         <v>1</v>
+      </c>
+      <c r="H38">
+        <f>IF(C40&lt;C39,IF(C40&lt;C38,2,1),0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1986,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2009,6 +2054,10 @@
         <f>IF(B43&lt;B42,IF(B43&lt;B41,2,1),0)</f>
         <v>0</v>
       </c>
+      <c r="H41">
+        <f>IF(C43&lt;C42,IF(C43&lt;C41,2,1),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5" t="s">
@@ -2050,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -2071,6 +2120,10 @@
       </c>
       <c r="G44">
         <f>IF(B46&lt;B45,IF(B46&lt;B44,2,1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>IF(C46&lt;C45,IF(C46&lt;C44,2,1),0)</f>
         <v>0</v>
       </c>
     </row>
